--- a/inaccuracy/inaccuracytest.xlsx
+++ b/inaccuracy/inaccuracytest.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -455,20 +455,41 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2025</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0</v>
+        <v>1.549999999999727</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.25</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.3999999999996362</v>
+        <v>1.549999999999727</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.7999999999999972</v>
       </c>
     </row>
   </sheetData>

--- a/inaccuracy/inaccuracytest.xlsx
+++ b/inaccuracy/inaccuracytest.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" activeCellId="3" sqref="A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -473,25 +473,6 @@
         <v>1.549999999999727</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
